--- a/Report1/Report1.xlsx
+++ b/Report1/Report1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/181b992b5cb161aa/Desktop/MetallicMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/181b992b5cb161aa/Documents/GitHub/Metallic_materials/Report1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{003B4F10-881A-4E6E-88F6-0553952F7824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB922024-4D3D-48AB-A528-73FE719EC30D}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{003B4F10-881A-4E6E-88F6-0553952F7824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8628759C-9D10-45C0-B52A-BC4A8BC79ADD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="10610" windowHeight="15170" xr2:uid="{11273086-95A3-491D-9E51-AA0C6302D633}"/>
   </bookViews>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DEA8AB-7D1A-45D9-B473-9B22F74F7BB0}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,176 +540,173 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
-        <v>1.3699999999999999E-5</v>
+        <v>2.6999999999999999E-5</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>182.96</v>
       </c>
       <c r="D2">
-        <v>583</v>
+        <v>980</v>
       </c>
       <c r="E2">
-        <v>953</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>7.9999999999999996E-6</v>
+        <v>1.3699999999999999E-5</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>973</v>
+        <v>583</v>
       </c>
       <c r="E3">
-        <v>1348</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
-        <v>1.3E-7</v>
+        <v>1.05E-4</v>
       </c>
       <c r="C4">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D4">
-        <v>1373</v>
+        <v>845</v>
       </c>
       <c r="E4">
-        <v>1873</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
-        <v>6.6E-3</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="C5">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D5">
-        <v>930</v>
+        <v>1939</v>
       </c>
       <c r="E5">
-        <v>1140</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>2.6999999999999999E-5</v>
+        <v>3.1000000000000002E-10</v>
       </c>
       <c r="C6">
-        <v>182.96</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>980</v>
+        <v>498</v>
       </c>
       <c r="E6">
-        <v>1250</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>3.1000000000000002E-10</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D7">
-        <v>498</v>
+        <v>1473</v>
       </c>
       <c r="E7">
-        <v>573</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
-        <v>1.2999999999999999E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="C8">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="D8">
-        <v>1473</v>
+        <v>823</v>
       </c>
       <c r="E8">
-        <v>1873</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>1E-4</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="C9">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="D9">
-        <v>823</v>
+        <v>973</v>
       </c>
       <c r="E9">
-        <v>1073</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>1.05E-4</v>
+        <v>1.3E-7</v>
       </c>
       <c r="C10">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D10">
-        <v>845</v>
+        <v>1373</v>
       </c>
       <c r="E10">
-        <v>1111</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>3.4000000000000002E-4</v>
+        <v>6.6E-3</v>
       </c>
       <c r="C11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D11">
-        <v>1939</v>
+        <v>930</v>
       </c>
       <c r="E11">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" s="4"/>
+        <v>1140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report1/Report1.xlsx
+++ b/Report1/Report1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/181b992b5cb161aa/Documents/GitHub/Metallic_materials/Report1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{003B4F10-881A-4E6E-88F6-0553952F7824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8628759C-9D10-45C0-B52A-BC4A8BC79ADD}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{003B4F10-881A-4E6E-88F6-0553952F7824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B785819C-30C5-4EB9-B420-66278235D8EA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="10610" windowHeight="15170" xr2:uid="{11273086-95A3-491D-9E51-AA0C6302D633}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>"Solvente"</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Ti_Ti</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>solute</t>
   </si>
 </sst>
 </file>
@@ -189,12 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,200 +523,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DEA8AB-7D1A-45D9-B473-9B22F74F7BB0}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>182.96</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>980</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>124</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>583</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.05E-4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>210</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>845</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1111</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>328</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1939</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1941</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
         <v>3.1000000000000002E-10</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>72</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>498</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>258</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1473</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1873</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>279</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>823</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1073</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>181</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>973</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1348</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
         <v>1.3E-7</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>194</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1373</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1873</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
         <v>6.6E-3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>329</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>930</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1140</v>
       </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
